--- a/data/tinka_data.xlsx
+++ b/data/tinka_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gprad\OneDrive\Escritorio\Projects\tinka-luck-model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E75A48D-47A6-489D-97B3-E680F8C21A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B44B01-E6F1-4D2E-8B96-1EB9F0571186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2054BA43-A486-4793-A4FE-1E712219B68E}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>B6</t>
   </si>
   <si>
-    <t>Bonus</t>
-  </si>
-  <si>
     <t>fecha</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>valor</t>
+  </si>
+  <si>
+    <t>Boliyapa</t>
   </si>
 </sst>
 </file>
@@ -122,13 +122,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -145,15 +145,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A2B5FD3-87DF-44C5-BE5A-B817841547A1}" name="Datos" displayName="Datos" ref="A1:C1142" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A2B5FD3-87DF-44C5-BE5A-B817841547A1}" name="Datos" displayName="Datos" ref="A1:C1142" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C1142" xr:uid="{5AC75167-5AF2-4781-8D04-B6FF142FE0CD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C1142">
-    <sortCondition ref="A1:A1142"/>
-  </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E7D56B9D-95F8-415A-8185-C61B87A61225}" name="fecha" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{83F3D802-F3A5-491C-84F3-23B9BC1F45BF}" name="bola" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{C3C5180A-C4E0-44FA-BD93-688A00B714A6}" name="valor" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E7D56B9D-95F8-415A-8185-C61B87A61225}" name="fecha" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{83F3D802-F3A5-491C-84F3-23B9BC1F45BF}" name="bola" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{C3C5180A-C4E0-44FA-BD93-688A00B714A6}" name="valor" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -459,7 +456,7 @@
   <dimension ref="A1:C1142"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,13 +467,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -550,7 +547,7 @@
         <v>45294</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2">
         <v>29</v>
@@ -627,7 +624,7 @@
         <v>45298</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C15" s="2">
         <v>31</v>
@@ -704,7 +701,7 @@
         <v>45301</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C22" s="2">
         <v>31</v>
@@ -781,7 +778,7 @@
         <v>45305</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2">
         <v>43</v>
@@ -858,7 +855,7 @@
         <v>45308</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C36" s="2">
         <v>17</v>
@@ -935,7 +932,7 @@
         <v>45312</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C43" s="2">
         <v>24</v>
@@ -1012,7 +1009,7 @@
         <v>45315</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C50" s="2">
         <v>25</v>
@@ -1089,7 +1086,7 @@
         <v>45319</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C57" s="2">
         <v>12</v>
@@ -1166,7 +1163,7 @@
         <v>45322</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C64" s="2">
         <v>6</v>
@@ -1243,7 +1240,7 @@
         <v>45326</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C71" s="2">
         <v>47</v>
@@ -1320,7 +1317,7 @@
         <v>45329</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C78" s="2">
         <v>40</v>
@@ -1397,7 +1394,7 @@
         <v>45333</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C85" s="2">
         <v>44</v>
@@ -1474,7 +1471,7 @@
         <v>45336</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C92" s="2">
         <v>30</v>
@@ -1551,7 +1548,7 @@
         <v>45340</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C99" s="2">
         <v>28</v>
@@ -1628,7 +1625,7 @@
         <v>45343</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C106" s="2">
         <v>5</v>
@@ -1705,7 +1702,7 @@
         <v>45347</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C113" s="2">
         <v>33</v>
@@ -1782,7 +1779,7 @@
         <v>45350</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C120" s="2">
         <v>8</v>
@@ -1859,7 +1856,7 @@
         <v>45354</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C127" s="2">
         <v>46</v>
@@ -1936,7 +1933,7 @@
         <v>45357</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C134" s="2">
         <v>38</v>
@@ -2013,7 +2010,7 @@
         <v>45361</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C141" s="2">
         <v>24</v>
@@ -2090,7 +2087,7 @@
         <v>45364</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C148" s="2">
         <v>7</v>
@@ -2167,7 +2164,7 @@
         <v>45368</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C155" s="2">
         <v>26</v>
@@ -2244,7 +2241,7 @@
         <v>45371</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C162" s="2">
         <v>6</v>
@@ -2321,7 +2318,7 @@
         <v>45375</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C169" s="2">
         <v>39</v>
@@ -2398,7 +2395,7 @@
         <v>45378</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C176" s="2">
         <v>43</v>
@@ -2475,7 +2472,7 @@
         <v>45382</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C183" s="2">
         <v>6</v>
@@ -2552,7 +2549,7 @@
         <v>45385</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C190" s="2">
         <v>17</v>
@@ -2629,7 +2626,7 @@
         <v>45389</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C197" s="2">
         <v>33</v>
@@ -2706,7 +2703,7 @@
         <v>45392</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C204" s="2">
         <v>18</v>
@@ -2783,7 +2780,7 @@
         <v>45396</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C211" s="2">
         <v>4</v>
@@ -2860,7 +2857,7 @@
         <v>45399</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C218" s="2">
         <v>34</v>
@@ -2937,7 +2934,7 @@
         <v>45403</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C225" s="2">
         <v>39</v>
@@ -3014,7 +3011,7 @@
         <v>45406</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C232" s="2">
         <v>46</v>
@@ -3091,7 +3088,7 @@
         <v>45410</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C239" s="2">
         <v>20</v>
@@ -3168,7 +3165,7 @@
         <v>45413</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C246" s="2">
         <v>21</v>
@@ -3245,7 +3242,7 @@
         <v>45417</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C253" s="2">
         <v>37</v>
@@ -3322,7 +3319,7 @@
         <v>45420</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C260" s="2">
         <v>46</v>
@@ -3399,7 +3396,7 @@
         <v>45424</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C267" s="2">
         <v>29</v>
@@ -3476,7 +3473,7 @@
         <v>45427</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C274" s="2">
         <v>30</v>
@@ -3553,7 +3550,7 @@
         <v>45431</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C281" s="2">
         <v>43</v>
@@ -3630,7 +3627,7 @@
         <v>45434</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C288" s="2">
         <v>1</v>
@@ -3707,7 +3704,7 @@
         <v>45438</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C295" s="2">
         <v>34</v>
@@ -3784,7 +3781,7 @@
         <v>45441</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C302" s="2">
         <v>21</v>
@@ -3861,7 +3858,7 @@
         <v>45445</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C309" s="2">
         <v>36</v>
@@ -3938,7 +3935,7 @@
         <v>45448</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C316" s="2">
         <v>8</v>
@@ -4015,7 +4012,7 @@
         <v>45452</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C323" s="2">
         <v>27</v>
@@ -4092,7 +4089,7 @@
         <v>45455</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C330" s="2">
         <v>9</v>
@@ -4169,7 +4166,7 @@
         <v>45459</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C337" s="2">
         <v>28</v>
@@ -4246,7 +4243,7 @@
         <v>45462</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C344" s="2">
         <v>6</v>
@@ -4323,7 +4320,7 @@
         <v>45466</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C351" s="2">
         <v>15</v>
@@ -4400,7 +4397,7 @@
         <v>45469</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C358" s="2">
         <v>30</v>
@@ -4477,7 +4474,7 @@
         <v>45473</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C365" s="2">
         <v>11</v>
@@ -4554,7 +4551,7 @@
         <v>45476</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C372" s="2">
         <v>7</v>
@@ -4631,7 +4628,7 @@
         <v>45480</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C379" s="2">
         <v>32</v>
@@ -4708,7 +4705,7 @@
         <v>45483</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C386" s="2">
         <v>6</v>
@@ -4785,7 +4782,7 @@
         <v>45487</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C393" s="2">
         <v>29</v>
@@ -4862,7 +4859,7 @@
         <v>45490</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C400" s="2">
         <v>16</v>
@@ -4939,7 +4936,7 @@
         <v>45494</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C407" s="2">
         <v>19</v>
@@ -5016,7 +5013,7 @@
         <v>45497</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C414" s="2">
         <v>40</v>
@@ -5093,7 +5090,7 @@
         <v>45501</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C421" s="2">
         <v>50</v>
@@ -5170,7 +5167,7 @@
         <v>45504</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C428" s="2">
         <v>43</v>
@@ -5247,7 +5244,7 @@
         <v>45508</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C435" s="2">
         <v>47</v>
@@ -5324,7 +5321,7 @@
         <v>45511</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C442" s="2">
         <v>33</v>
@@ -5401,7 +5398,7 @@
         <v>45515</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C449" s="2">
         <v>6</v>
@@ -5478,7 +5475,7 @@
         <v>45518</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C456" s="2">
         <v>2</v>
@@ -5555,7 +5552,7 @@
         <v>45522</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C463" s="2">
         <v>27</v>
@@ -5632,7 +5629,7 @@
         <v>45525</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C470" s="2">
         <v>11</v>
@@ -5709,7 +5706,7 @@
         <v>45529</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C477" s="2">
         <v>5</v>
@@ -5786,7 +5783,7 @@
         <v>45532</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C484" s="2">
         <v>29</v>
@@ -5863,7 +5860,7 @@
         <v>45536</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C491" s="2">
         <v>28</v>
@@ -5940,7 +5937,7 @@
         <v>45539</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C498" s="2">
         <v>31</v>
@@ -6017,7 +6014,7 @@
         <v>45543</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C505" s="2">
         <v>50</v>
@@ -6094,7 +6091,7 @@
         <v>45546</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C512" s="2">
         <v>20</v>
@@ -6171,7 +6168,7 @@
         <v>45550</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C519" s="2">
         <v>25</v>
@@ -6248,7 +6245,7 @@
         <v>45553</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C526" s="2">
         <v>45</v>
@@ -6325,7 +6322,7 @@
         <v>45557</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C533" s="2">
         <v>45</v>
@@ -6402,7 +6399,7 @@
         <v>45560</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C540" s="2">
         <v>15</v>
@@ -6479,7 +6476,7 @@
         <v>45564</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C547" s="2">
         <v>45</v>
@@ -6556,7 +6553,7 @@
         <v>45567</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C554" s="2">
         <v>33</v>
@@ -6633,7 +6630,7 @@
         <v>45571</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C561" s="2">
         <v>44</v>
@@ -6710,7 +6707,7 @@
         <v>45574</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C568" s="2">
         <v>3</v>
@@ -6787,7 +6784,7 @@
         <v>45578</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C575" s="2">
         <v>8</v>
@@ -6864,7 +6861,7 @@
         <v>45581</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C582" s="2">
         <v>50</v>
@@ -6941,7 +6938,7 @@
         <v>45585</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C589" s="2">
         <v>49</v>
@@ -7018,7 +7015,7 @@
         <v>45588</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C596" s="2">
         <v>50</v>
@@ -7095,7 +7092,7 @@
         <v>45592</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C603" s="2">
         <v>42</v>
@@ -7172,7 +7169,7 @@
         <v>45595</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C610" s="2">
         <v>21</v>
@@ -7249,7 +7246,7 @@
         <v>45599</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C617" s="2">
         <v>3</v>
@@ -7326,7 +7323,7 @@
         <v>45602</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C624" s="2">
         <v>33</v>
@@ -7403,7 +7400,7 @@
         <v>45606</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C631" s="2">
         <v>18</v>
@@ -7480,7 +7477,7 @@
         <v>45609</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C638" s="2">
         <v>45</v>
@@ -7557,7 +7554,7 @@
         <v>45620</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C645" s="2">
         <v>18</v>
@@ -7634,7 +7631,7 @@
         <v>45623</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C652" s="2">
         <v>22</v>
@@ -7711,7 +7708,7 @@
         <v>45627</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C659" s="2">
         <v>13</v>
@@ -7788,7 +7785,7 @@
         <v>45630</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C666" s="2">
         <v>26</v>
@@ -7865,7 +7862,7 @@
         <v>45634</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C673" s="2">
         <v>29</v>
@@ -7942,7 +7939,7 @@
         <v>45637</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C680" s="2">
         <v>6</v>
@@ -8019,7 +8016,7 @@
         <v>45641</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C687" s="2">
         <v>44</v>
@@ -8096,7 +8093,7 @@
         <v>45644</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C694" s="2">
         <v>44</v>
@@ -8173,7 +8170,7 @@
         <v>45648</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C701" s="2">
         <v>45</v>
@@ -8250,7 +8247,7 @@
         <v>45651</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C708" s="2">
         <v>44</v>
@@ -8327,7 +8324,7 @@
         <v>45655</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C715" s="2">
         <v>3</v>
@@ -8404,7 +8401,7 @@
         <v>45658</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C722" s="2">
         <v>15</v>
@@ -8481,7 +8478,7 @@
         <v>45665</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C729" s="2">
         <v>31</v>
@@ -8558,7 +8555,7 @@
         <v>45669</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C736" s="2">
         <v>14</v>
@@ -8635,7 +8632,7 @@
         <v>45672</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C743" s="2">
         <v>32</v>
@@ -8712,7 +8709,7 @@
         <v>45676</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C750" s="2">
         <v>16</v>
@@ -8789,7 +8786,7 @@
         <v>45679</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C757" s="2">
         <v>14</v>
@@ -8866,7 +8863,7 @@
         <v>45683</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C764" s="2">
         <v>5</v>
@@ -8943,7 +8940,7 @@
         <v>45686</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C771" s="2">
         <v>26</v>
@@ -9020,7 +9017,7 @@
         <v>45690</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C778" s="2">
         <v>2</v>
@@ -9097,7 +9094,7 @@
         <v>45693</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C785" s="2">
         <v>17</v>
@@ -9174,7 +9171,7 @@
         <v>45697</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C792" s="2">
         <v>18</v>
@@ -9251,7 +9248,7 @@
         <v>45700</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C799" s="2">
         <v>48</v>
@@ -9328,7 +9325,7 @@
         <v>45704</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C806" s="2">
         <v>26</v>
@@ -9405,7 +9402,7 @@
         <v>45707</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C813" s="2">
         <v>21</v>
@@ -9482,7 +9479,7 @@
         <v>45711</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C820" s="2">
         <v>25</v>
@@ -9559,7 +9556,7 @@
         <v>45714</v>
       </c>
       <c r="B827" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C827" s="2">
         <v>22</v>
@@ -9636,7 +9633,7 @@
         <v>45718</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C834" s="2">
         <v>15</v>
@@ -9713,7 +9710,7 @@
         <v>45721</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C841" s="2">
         <v>20</v>
@@ -9790,7 +9787,7 @@
         <v>45725</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C848" s="2">
         <v>14</v>
@@ -9867,7 +9864,7 @@
         <v>45728</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C855" s="2">
         <v>11</v>
@@ -9944,7 +9941,7 @@
         <v>45732</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C862" s="2">
         <v>23</v>
@@ -10021,7 +10018,7 @@
         <v>45735</v>
       </c>
       <c r="B869" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C869" s="2">
         <v>48</v>
@@ -10098,7 +10095,7 @@
         <v>45739</v>
       </c>
       <c r="B876" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C876" s="2">
         <v>43</v>
@@ -10175,7 +10172,7 @@
         <v>45742</v>
       </c>
       <c r="B883" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C883" s="2">
         <v>39</v>
@@ -10252,7 +10249,7 @@
         <v>45746</v>
       </c>
       <c r="B890" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C890" s="2">
         <v>13</v>
@@ -10329,7 +10326,7 @@
         <v>45749</v>
       </c>
       <c r="B897" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C897" s="2">
         <v>50</v>
@@ -10406,7 +10403,7 @@
         <v>45753</v>
       </c>
       <c r="B904" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C904" s="2">
         <v>29</v>
@@ -10483,7 +10480,7 @@
         <v>45756</v>
       </c>
       <c r="B911" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C911" s="2">
         <v>21</v>
@@ -10560,7 +10557,7 @@
         <v>45760</v>
       </c>
       <c r="B918" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C918" s="2">
         <v>28</v>
@@ -10637,7 +10634,7 @@
         <v>45763</v>
       </c>
       <c r="B925" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C925" s="2">
         <v>15</v>
@@ -10714,7 +10711,7 @@
         <v>45767</v>
       </c>
       <c r="B932" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C932" s="2">
         <v>37</v>
@@ -10791,7 +10788,7 @@
         <v>45770</v>
       </c>
       <c r="B939" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C939" s="2">
         <v>46</v>
@@ -10868,7 +10865,7 @@
         <v>45777</v>
       </c>
       <c r="B946" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C946" s="2">
         <v>37</v>
@@ -10945,7 +10942,7 @@
         <v>45781</v>
       </c>
       <c r="B953" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C953" s="2">
         <v>46</v>
@@ -11022,7 +11019,7 @@
         <v>45784</v>
       </c>
       <c r="B960" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C960" s="2">
         <v>49</v>
@@ -11099,7 +11096,7 @@
         <v>45788</v>
       </c>
       <c r="B967" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C967" s="2">
         <v>17</v>
@@ -11176,7 +11173,7 @@
         <v>45791</v>
       </c>
       <c r="B974" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C974" s="2">
         <v>42</v>
@@ -11253,7 +11250,7 @@
         <v>45795</v>
       </c>
       <c r="B981" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C981" s="2">
         <v>46</v>
@@ -11330,7 +11327,7 @@
         <v>45798</v>
       </c>
       <c r="B988" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C988" s="2">
         <v>1</v>
@@ -11407,7 +11404,7 @@
         <v>45802</v>
       </c>
       <c r="B995" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C995" s="2">
         <v>25</v>
@@ -11484,7 +11481,7 @@
         <v>45805</v>
       </c>
       <c r="B1002" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1002" s="2">
         <v>37</v>
@@ -11561,7 +11558,7 @@
         <v>45809</v>
       </c>
       <c r="B1009" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1009" s="2">
         <v>4</v>
@@ -11638,7 +11635,7 @@
         <v>45812</v>
       </c>
       <c r="B1016" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1016" s="2">
         <v>37</v>
@@ -11715,7 +11712,7 @@
         <v>45816</v>
       </c>
       <c r="B1023" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1023" s="2">
         <v>14</v>
@@ -11792,7 +11789,7 @@
         <v>45819</v>
       </c>
       <c r="B1030" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1030" s="2">
         <v>32</v>
@@ -11869,7 +11866,7 @@
         <v>45823</v>
       </c>
       <c r="B1037" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1037" s="2">
         <v>26</v>
@@ -11946,7 +11943,7 @@
         <v>45826</v>
       </c>
       <c r="B1044" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1044" s="2">
         <v>14</v>
@@ -12023,7 +12020,7 @@
         <v>45830</v>
       </c>
       <c r="B1051" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1051" s="2">
         <v>22</v>
@@ -12100,7 +12097,7 @@
         <v>45833</v>
       </c>
       <c r="B1058" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1058" s="2">
         <v>17</v>
@@ -12177,7 +12174,7 @@
         <v>45837</v>
       </c>
       <c r="B1065" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1065" s="2">
         <v>4</v>
@@ -12254,7 +12251,7 @@
         <v>45840</v>
       </c>
       <c r="B1072" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1072" s="2">
         <v>36</v>
@@ -12331,7 +12328,7 @@
         <v>45844</v>
       </c>
       <c r="B1079" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1079" s="2">
         <v>35</v>
@@ -12408,7 +12405,7 @@
         <v>45847</v>
       </c>
       <c r="B1086" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1086" s="2">
         <v>45</v>
@@ -12485,7 +12482,7 @@
         <v>45851</v>
       </c>
       <c r="B1093" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1093" s="2">
         <v>5</v>
@@ -12562,7 +12559,7 @@
         <v>45854</v>
       </c>
       <c r="B1100" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1100" s="2">
         <v>24</v>
@@ -12639,7 +12636,7 @@
         <v>45858</v>
       </c>
       <c r="B1107" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1107" s="2">
         <v>10</v>
@@ -12716,7 +12713,7 @@
         <v>45861</v>
       </c>
       <c r="B1114" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1114" s="2">
         <v>21</v>
@@ -12793,7 +12790,7 @@
         <v>45865</v>
       </c>
       <c r="B1121" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1121" s="2">
         <v>17</v>
@@ -12870,7 +12867,7 @@
         <v>45868</v>
       </c>
       <c r="B1128" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1128" s="2">
         <v>23</v>
@@ -12947,7 +12944,7 @@
         <v>45872</v>
       </c>
       <c r="B1135" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1135" s="2">
         <v>22</v>
@@ -13024,7 +13021,7 @@
         <v>45875</v>
       </c>
       <c r="B1142" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1142" s="2">
         <v>16</v>
